--- a/data/trans_dic/P57_AC_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_AC_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7626386318355214</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.5651252543858818</v>
+        <v>0.5651252543858819</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.6533612378944339</v>
@@ -685,7 +685,7 @@
         <v>0.7720989471830625</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5230030574497398</v>
+        <v>0.5230030574497397</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6584709381561646</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6141042591486691</v>
+        <v>0.6155280688351807</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5814029674827776</v>
+        <v>0.5845913386198855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7177937627958769</v>
+        <v>0.712414882750753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5168954536607892</v>
+        <v>0.518159923119374</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6015421295181992</v>
+        <v>0.5890102570227149</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6111115241457457</v>
+        <v>0.6208238768111144</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7226689665560838</v>
+        <v>0.71984543925302</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4826062833407788</v>
+        <v>0.4781691537474995</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6250700119475751</v>
+        <v>0.6237407663931265</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6095518844238447</v>
+        <v>0.6114983156831196</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7354646092302364</v>
+        <v>0.7355457253800484</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5147935380920319</v>
+        <v>0.5159718969046803</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.703094922442927</v>
+        <v>0.7049410336630123</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6791854205375846</v>
+        <v>0.6783303350670901</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8045761016672988</v>
+        <v>0.8016977024844415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6089973611181366</v>
+        <v>0.6065523345464982</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7018057454121225</v>
+        <v>0.7038161631078851</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7302533592816467</v>
+        <v>0.7343286590185165</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8181242928666731</v>
+        <v>0.8131066456062854</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5598375192973853</v>
+        <v>0.559882279499764</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6928951835371481</v>
+        <v>0.6914225583447069</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6852646876394097</v>
+        <v>0.6878756291176068</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7982578143994172</v>
+        <v>0.7967829784010536</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5730602748941961</v>
+        <v>0.5803969570604837</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.7613042036366061</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6403566545362207</v>
+        <v>0.6403566545362209</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5680394705889985</v>
+        <v>0.5663696467046456</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6058076929540115</v>
+        <v>0.6046450268905116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6960439670686689</v>
+        <v>0.6951740742881741</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5968330777046034</v>
+        <v>0.5942833608562116</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6112408456929056</v>
+        <v>0.6120295938297615</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.655091551224256</v>
+        <v>0.6502163006429867</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7309621941885294</v>
+        <v>0.7316140518597714</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5908055621494623</v>
+        <v>0.5941334200131361</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6025986568743728</v>
+        <v>0.6030945602819225</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6412208365292965</v>
+        <v>0.6410573536557498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7243766908816144</v>
+        <v>0.7250286385420979</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6066392921037003</v>
+        <v>0.6073716365947566</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6717793849835834</v>
+        <v>0.6693545101617177</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7092406996347457</v>
+        <v>0.705221381844493</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7844194391652325</v>
+        <v>0.7903144034216079</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6893117049173129</v>
+        <v>0.6909114106475718</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7135832106206843</v>
+        <v>0.7085699586455797</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.759075237956475</v>
+        <v>0.7540830754080506</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8200977772460585</v>
+        <v>0.8188110274433356</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6756437337643622</v>
+        <v>0.6751992783861942</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6780839470216562</v>
+        <v>0.6780499473356137</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.715674397426779</v>
+        <v>0.7124970584911294</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7942345073456647</v>
+        <v>0.7897679067545018</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.669663469597229</v>
+        <v>0.6728977594319957</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.8608643758235343</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6450262706093493</v>
+        <v>0.6450262706093495</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7129251795156444</v>
@@ -969,7 +969,7 @@
         <v>0.8453413272149879</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6324900630574024</v>
+        <v>0.6324900630574025</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6761755109851197</v>
+        <v>0.6746635325053228</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6185819054226124</v>
+        <v>0.6188837232185153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.802307477706718</v>
+        <v>0.8067230045116875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5821544356734677</v>
+        <v>0.5812364954089119</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6312537468193424</v>
+        <v>0.6295171040440195</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6369335869954031</v>
+        <v>0.6418217450289365</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.79587919026376</v>
+        <v>0.8035080301083729</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5823341238045966</v>
+        <v>0.5820352181278348</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6771783399803979</v>
+        <v>0.677481729720413</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6361865663463667</v>
+        <v>0.6377857287789994</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8180594828197811</v>
+        <v>0.8181200694113298</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5947635530634716</v>
+        <v>0.5931041654454373</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7577197428279446</v>
+        <v>0.754604818364071</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6969691901779449</v>
+        <v>0.6939499640541569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8689100164222694</v>
+        <v>0.8703573730963131</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.676945279929303</v>
+        <v>0.6737094835556461</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7638273414192437</v>
+        <v>0.7628281643053495</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7537573871137901</v>
+        <v>0.7589559913389406</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9074216046620052</v>
+        <v>0.9122262296467548</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7047808507939899</v>
+        <v>0.7012018152798267</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7449059413836486</v>
+        <v>0.7458776543784587</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7050005760796654</v>
+        <v>0.7040752002183819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8725953600822727</v>
+        <v>0.8731898044812549</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6710164831199634</v>
+        <v>0.6645942713376596</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.8088451443364372</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6419337974711029</v>
+        <v>0.641933797471103</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.678903937035894</v>
+        <v>0.6796482606066652</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6508106282428269</v>
+        <v>0.648929033191348</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7652961329566651</v>
+        <v>0.7664321062713927</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6166229109320053</v>
+        <v>0.6149790914898707</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6957633744738021</v>
+        <v>0.6943793870624305</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7440186828891522</v>
+        <v>0.7426503413697028</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8078365394068668</v>
+        <v>0.8092113180699857</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6041182214725271</v>
+        <v>0.6059442311326286</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6943007935387288</v>
+        <v>0.6959773079175738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6972038155680018</v>
+        <v>0.6960236636045068</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7906833891564903</v>
+        <v>0.7911194457668573</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6199378436074782</v>
+        <v>0.6215007085239321</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7331087996926497</v>
+        <v>0.7322802996344085</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7073272788008094</v>
+        <v>0.7044816737696457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8142314352901413</v>
+        <v>0.8139139559356782</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6785280233673495</v>
+        <v>0.677725440339589</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7619935831409751</v>
+        <v>0.7635317499127471</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8069239269343018</v>
+        <v>0.8035654961991336</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8589655772309903</v>
+        <v>0.8595865629755546</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6653978815797771</v>
+        <v>0.6616049582385145</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7363550913508188</v>
+        <v>0.7362295769603299</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7383120919527372</v>
+        <v>0.7378374649915169</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8268196934601455</v>
+        <v>0.8260385892189389</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6614148444777428</v>
+        <v>0.6648923560502414</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.8288346977413917</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7001898561769048</v>
+        <v>0.7001898561769047</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.65499997881383</v>
+        <v>0.6600389848892129</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6676786213160126</v>
+        <v>0.6647999459637587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7726491824806669</v>
+        <v>0.7701942307248557</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6355752240285109</v>
+        <v>0.6351413138547672</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7374549199699457</v>
+        <v>0.7388557294792683</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7254465504076263</v>
+        <v>0.7268579491971408</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8181264123871651</v>
+        <v>0.8185680064366793</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6806709516349406</v>
+        <v>0.6809400831718869</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7165311133709387</v>
+        <v>0.7217274303980622</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.712754997242132</v>
+        <v>0.7151807568656751</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8076859012751914</v>
+        <v>0.8071409043987172</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6734094764730114</v>
+        <v>0.67441725379581</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7576279276832852</v>
+        <v>0.7606631748903793</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7470038576684753</v>
+        <v>0.7446147080363595</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8411581815585807</v>
+        <v>0.8340533135542063</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7270925682934261</v>
+        <v>0.7288736767942583</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.808708583666883</v>
+        <v>0.8081945002400875</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7901246844737143</v>
+        <v>0.790676910262071</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8730814914973674</v>
+        <v>0.8734066863416986</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7346354989392019</v>
+        <v>0.7361787722842357</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7754628723361785</v>
+        <v>0.7813003914472759</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7632442059957441</v>
+        <v>0.7633430968241967</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8496322587575432</v>
+        <v>0.8477539653594499</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7232578857637488</v>
+        <v>0.725240318954411</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.7676851141371265</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.446611008706069</v>
+        <v>0.4466110087060691</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.6906229667633564</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5063870445807197</v>
+        <v>0.5063521089323059</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5409969117249083</v>
+        <v>0.5439624963213959</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7160951625797357</v>
+        <v>0.7149075346081891</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3509947777961114</v>
+        <v>0.3554588827064936</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6642149704032442</v>
+        <v>0.664622329316828</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6864245043291871</v>
+        <v>0.6848276996558271</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7908928867792127</v>
+        <v>0.7928528850399016</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6119225637393679</v>
+        <v>0.6115507448228213</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6401963513877111</v>
+        <v>0.6433114174231949</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6653357347133383</v>
+        <v>0.6645942022177473</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7834893238919693</v>
+        <v>0.7833397036869316</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5662663744162624</v>
+        <v>0.563413001849841</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6195081255809478</v>
+        <v>0.6246934880395837</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6597472701185391</v>
+        <v>0.6587532822088304</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8139426643720407</v>
+        <v>0.8174114687836259</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5559407653929156</v>
+        <v>0.5537798105071394</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7161576135945823</v>
+        <v>0.7168980681262886</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7421433137007073</v>
+        <v>0.7393662760530392</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8380880939270331</v>
+        <v>0.8396397544763212</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6784717763168884</v>
+        <v>0.67678594363085</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.68917070510039</v>
+        <v>0.6899314124730316</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7156792321762988</v>
+        <v>0.7148985155227791</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8259440989118189</v>
+        <v>0.8276624382354175</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6387522761625135</v>
+        <v>0.6368447509548936</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.7903424318816804</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.623713747321035</v>
+        <v>0.6237137473210349</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.7072400772568092</v>
@@ -1501,7 +1501,7 @@
         <v>0.8208747123135622</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6399424901700783</v>
+        <v>0.6399424901700784</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.6936968946487169</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6643449051945585</v>
+        <v>0.6635276805238123</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6493834893492164</v>
+        <v>0.6475356038398432</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7740550468392258</v>
+        <v>0.7753183582925752</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6024744649752475</v>
+        <v>0.6060585076545646</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6919080230863305</v>
+        <v>0.691642861026909</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7162431690848646</v>
+        <v>0.7166198928103389</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8070843124235628</v>
+        <v>0.8071788595861615</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6260135394048734</v>
+        <v>0.6242817362870937</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6822025243305767</v>
+        <v>0.6821166356535038</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6866966454762883</v>
+        <v>0.6865501957031762</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7959193080733235</v>
+        <v>0.7967004940245023</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6211007396514149</v>
+        <v>0.6196605168695702</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6957145584616919</v>
+        <v>0.6955211251931293</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6821225121848492</v>
+        <v>0.6808363571731747</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8034264582773758</v>
+        <v>0.8041837134254156</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6423868610017511</v>
+        <v>0.6432042456316736</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7230937976936617</v>
+        <v>0.7217722319231172</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7474979933289266</v>
+        <v>0.7484061351390022</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8339160679580931</v>
+        <v>0.8332933306136706</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.654495931342912</v>
+        <v>0.6537126886460405</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7044806214729719</v>
+        <v>0.7043663574820043</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7103265898413977</v>
+        <v>0.7102518578062205</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8154912536997311</v>
+        <v>0.815883463817345</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.643547656879601</v>
+        <v>0.6437680356955431</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>290282</v>
+        <v>290955</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>253586</v>
+        <v>254977</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>307379</v>
+        <v>305075</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>281503</v>
+        <v>282191</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>183789</v>
+        <v>179960</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>190201</v>
+        <v>193223</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>249376</v>
+        <v>248402</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>233597</v>
+        <v>231449</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>486443</v>
+        <v>485408</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>455579</v>
+        <v>457034</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>568738</v>
+        <v>568800</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>529535</v>
+        <v>530747</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>332347</v>
+        <v>333220</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>296236</v>
+        <v>295863</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>344541</v>
+        <v>343309</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>331662</v>
+        <v>330330</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>214422</v>
+        <v>215036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>227282</v>
+        <v>228550</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>282316</v>
+        <v>280584</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>270979</v>
+        <v>271001</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>539226</v>
+        <v>538080</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>512167</v>
+        <v>514118</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>617296</v>
+        <v>616155</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>589470</v>
+        <v>597017</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>207553</v>
+        <v>206942</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>252481</v>
+        <v>251997</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>259693</v>
+        <v>259368</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>287355</v>
+        <v>286127</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>227299</v>
+        <v>227592</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>219029</v>
+        <v>217399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>270680</v>
+        <v>270922</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>248342</v>
+        <v>249741</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>444265</v>
+        <v>444631</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>481632</v>
+        <v>481509</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>538505</v>
+        <v>538990</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>547074</v>
+        <v>547734</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>245457</v>
+        <v>244571</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>295589</v>
+        <v>293914</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>292665</v>
+        <v>294865</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>331880</v>
+        <v>332650</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>265357</v>
+        <v>263492</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>253795</v>
+        <v>252126</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>303688</v>
+        <v>303211</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>284003</v>
+        <v>283817</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>499917</v>
+        <v>499892</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>537555</v>
+        <v>535169</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>590438</v>
+        <v>587117</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>603910</v>
+        <v>606827</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>366750</v>
+        <v>365930</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>385823</v>
+        <v>386011</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>417960</v>
+        <v>420261</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>271378</v>
+        <v>270950</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>105294</v>
+        <v>105005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>165089</v>
+        <v>166356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>129397</v>
+        <v>130638</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>107695</v>
+        <v>107639</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>480249</v>
+        <v>480464</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>561698</v>
+        <v>563110</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>559170</v>
+        <v>559211</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>387249</v>
+        <v>386168</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>410979</v>
+        <v>409289</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>434715</v>
+        <v>432832</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>452657</v>
+        <v>453411</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>315566</v>
+        <v>314058</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>127408</v>
+        <v>127241</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>195369</v>
+        <v>196716</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>147532</v>
+        <v>148313</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>130339</v>
+        <v>129677</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>528281</v>
+        <v>528970</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>622455</v>
+        <v>621638</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>596447</v>
+        <v>596853</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>436897</v>
+        <v>432715</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>840710</v>
+        <v>841632</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>747849</v>
+        <v>745687</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>875037</v>
+        <v>876336</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>693994</v>
+        <v>692144</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>496973</v>
+        <v>495985</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>568178</v>
+        <v>567133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>664196</v>
+        <v>665326</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>513273</v>
+        <v>514824</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1355706</v>
+        <v>1358979</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1333587</v>
+        <v>1331330</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1554158</v>
+        <v>1555015</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1224438</v>
+        <v>1227525</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>907834</v>
+        <v>906808</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>812793</v>
+        <v>809523</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>930990</v>
+        <v>930627</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>763666</v>
+        <v>762763</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>544281</v>
+        <v>545379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>616216</v>
+        <v>613652</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>706234</v>
+        <v>706744</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>565337</v>
+        <v>562115</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1437822</v>
+        <v>1437577</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1412218</v>
+        <v>1411310</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1625187</v>
+        <v>1623652</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1306359</v>
+        <v>1313228</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>229614</v>
+        <v>231380</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>336097</v>
+        <v>334648</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>475570</v>
+        <v>474059</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>355144</v>
+        <v>354901</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>419429</v>
+        <v>420226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>550109</v>
+        <v>551179</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>599814</v>
+        <v>600138</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>557659</v>
+        <v>557880</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>658712</v>
+        <v>663489</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>899273</v>
+        <v>902334</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1089295</v>
+        <v>1088560</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>927995</v>
+        <v>929383</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>265590</v>
+        <v>266654</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>376028</v>
+        <v>374825</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>517738</v>
+        <v>513365</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>406281</v>
+        <v>407276</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>459955</v>
+        <v>459662</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>599155</v>
+        <v>599573</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>640105</v>
+        <v>640343</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>601871</v>
+        <v>603136</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>712888</v>
+        <v>718255</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>962975</v>
+        <v>963099</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1145867</v>
+        <v>1143334</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>996688</v>
+        <v>999420</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>151005</v>
+        <v>150995</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>143359</v>
+        <v>144145</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>205623</v>
+        <v>205282</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>82618</v>
+        <v>83669</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>829445</v>
+        <v>829954</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>758001</v>
+        <v>756237</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>850541</v>
+        <v>852649</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>507267</v>
+        <v>506958</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>990358</v>
+        <v>995177</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>911021</v>
+        <v>910006</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1067554</v>
+        <v>1067350</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>602709</v>
+        <v>599672</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>184738</v>
+        <v>186284</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>174827</v>
+        <v>174564</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>233720</v>
+        <v>234716</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>130859</v>
+        <v>130350</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>894309</v>
+        <v>895234</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>819530</v>
+        <v>816463</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>901296</v>
+        <v>902965</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>562434</v>
+        <v>561037</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1066120</v>
+        <v>1067296</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>979955</v>
+        <v>978886</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1125402</v>
+        <v>1127743</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>679860</v>
+        <v>677830</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2170784</v>
+        <v>2168114</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2204091</v>
+        <v>2197819</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2607265</v>
+        <v>2611520</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2055560</v>
+        <v>2067789</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2335877</v>
+        <v>2334981</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2529068</v>
+        <v>2530398</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2831844</v>
+        <v>2832176</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2245627</v>
+        <v>2239415</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4532246</v>
+        <v>4531675</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4755475</v>
+        <v>4754461</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>5473580</v>
+        <v>5478952</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>4347115</v>
+        <v>4337035</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2273286</v>
+        <v>2272654</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2315211</v>
+        <v>2310846</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2706197</v>
+        <v>2708748</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2191736</v>
+        <v>2194525</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2441160</v>
+        <v>2436698</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2639429</v>
+        <v>2642636</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2925990</v>
+        <v>2923805</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2347799</v>
+        <v>2344989</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4680252</v>
+        <v>4679492</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>4919116</v>
+        <v>4918599</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5608177</v>
+        <v>5610875</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>4504222</v>
+        <v>4505765</v>
       </c>
     </row>
     <row r="32">
